--- a/Season Analysis/6 Tables Paper.xlsx
+++ b/Season Analysis/6 Tables Paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Documents\Georgetown University\Thesis Writer\Research\QB Worth\Season Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21B88A9-D5C5-441E-8F95-72E4445A07BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CBA2C2-2CB5-4A59-B4DD-D527081B3983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="716" activeTab="3" xr2:uid="{A4F8EAE2-AEFB-4A27-A307-595CCA1262C5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" tabRatio="716" xr2:uid="{A4F8EAE2-AEFB-4A27-A307-595CCA1262C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Season Summary" sheetId="4" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="342">
   <si>
     <t>QB</t>
   </si>
@@ -905,9 +905,6 @@
   </si>
   <si>
     <t>Cost Effectiveness:\ Veterans</t>
-  </si>
-  <si>
-    <t>95%CI</t>
   </si>
   <si>
     <t>*p$&lt;$0.10, **p$&lt;$0.05, ***p$&lt;$0.01. Standard errors are in parentheses.</t>
@@ -1645,18 +1642,18 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -1687,6 +1684,20 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
       <fill>
         <patternFill>
@@ -1699,6 +1710,62 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -1729,6 +1796,9 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
       <fill>
         <patternFill>
@@ -1737,10 +1807,27 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -1765,10 +1852,52 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -1793,7 +1922,43 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
@@ -1813,15 +1978,15 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
@@ -1841,12 +2006,102 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
@@ -1863,7 +2118,18 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
@@ -1880,17 +2146,6 @@
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
@@ -1905,18 +2160,25 @@
       </fill>
     </dxf>
     <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
@@ -1926,11 +2188,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
@@ -1940,11 +2203,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
@@ -1954,11 +2215,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
@@ -1967,200 +2223,13 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -2208,6 +2277,24 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
     </dxf>
     <dxf>
@@ -2215,6 +2302,51 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -2244,13 +2376,13 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
@@ -2271,7 +2403,31 @@
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
@@ -2283,172 +2439,13 @@
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode=".0000&quot;***&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="170" formatCode=".0000&quot;**&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="171" formatCode=".0000&quot;*&quot;"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2782,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA79AA15-DFD0-4A60-A11A-B650EB5FABEF}">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4507,8 +4504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4824FA36-21CB-4AB5-8BF8-F845BD6DF1D5}">
   <dimension ref="A1:AV62"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -4565,7 +4562,7 @@
       <c r="I1" s="101"/>
       <c r="J1" s="101"/>
       <c r="L1" s="101" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M1" s="101"/>
       <c r="N1" s="101"/>
@@ -4583,7 +4580,7 @@
       <c r="Y1" s="101"/>
       <c r="Z1" s="103"/>
       <c r="AB1" s="118" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC1" s="118"/>
       <c r="AD1" s="118"/>
@@ -4601,7 +4598,7 @@
       <c r="AO1" s="101"/>
       <c r="AP1" s="101"/>
       <c r="AR1" s="101" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AS1" s="101"/>
       <c r="AT1" s="101"/>
@@ -4611,7 +4608,7 @@
     <row r="2" spans="1:48" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C2" s="115" t="s">
         <v>279</v>
@@ -4642,16 +4639,16 @@
         <v>255</v>
       </c>
       <c r="W2" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="X2" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="X2" s="14" t="s">
+      <c r="Y2" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="Y2" s="14" t="s">
+      <c r="Z2" s="14" t="s">
         <v>298</v>
-      </c>
-      <c r="Z2" s="14" t="s">
-        <v>299</v>
       </c>
       <c r="AB2" s="25"/>
       <c r="AC2" s="114" t="s">
@@ -4774,7 +4771,7 @@
         <v>101</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="AJ3" s="1" t="s">
         <v>104</v>
@@ -4822,7 +4819,7 @@
         <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>68</v>
@@ -4834,7 +4831,7 @@
         <v>102</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>68</v>
@@ -4849,7 +4846,7 @@
         <v>4.1916509999999997E-2</v>
       </c>
       <c r="O4" s="68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P4" s="69">
         <f>M4-N4</f>
@@ -4862,7 +4859,7 @@
         <v>7.8778089999999995E-2</v>
       </c>
       <c r="S4" s="68" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T4" s="68">
         <f>Q4-R4</f>
@@ -4980,7 +4977,7 @@
         <v>0.11147857999999999</v>
       </c>
       <c r="O5" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="P5" s="64">
         <f t="shared" ref="P5:P21" si="0">M5-N5</f>
@@ -4993,7 +4990,7 @@
         <v>9.259618E-2</v>
       </c>
       <c r="S5" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T5" s="47">
         <f t="shared" ref="T5:T21" si="1">Q5-R5</f>
@@ -5111,7 +5108,7 @@
         <v>0.19739138000000001</v>
       </c>
       <c r="O6" s="47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="P6" s="64">
         <f t="shared" si="0"/>
@@ -5124,7 +5121,7 @@
         <v>0.15585732999999999</v>
       </c>
       <c r="S6" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T6" s="47">
         <f t="shared" si="1"/>
@@ -5242,7 +5239,7 @@
         <v>2.3507699999999999E-2</v>
       </c>
       <c r="O7" s="50" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P7" s="65">
         <f t="shared" si="0"/>
@@ -5255,7 +5252,7 @@
         <v>3.5469149999999998E-2</v>
       </c>
       <c r="S7" s="47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T7" s="47">
         <f t="shared" si="1"/>
@@ -5373,7 +5370,7 @@
         <v>2.3726089999999998E-2</v>
       </c>
       <c r="O8" s="50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P8" s="65">
         <f t="shared" si="0"/>
@@ -5386,7 +5383,7 @@
         <v>2.9848650000000001E-2</v>
       </c>
       <c r="S8" s="50" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T8" s="50">
         <f t="shared" si="1"/>
@@ -5502,7 +5499,7 @@
         <v>5.4268719999999999E-2</v>
       </c>
       <c r="O9" s="47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="P9" s="64">
         <f t="shared" si="0"/>
@@ -5515,7 +5512,7 @@
         <v>6.1100809999999998E-2</v>
       </c>
       <c r="S9" s="47" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T9" s="47">
         <f t="shared" si="1"/>
@@ -5631,7 +5628,7 @@
         <v>2.7146900000000002E-2</v>
       </c>
       <c r="O10" s="47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="P10" s="64">
         <f t="shared" si="0"/>
@@ -5644,7 +5641,7 @@
         <v>3.8353110000000003E-2</v>
       </c>
       <c r="S10" s="47" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="T10" s="47">
         <f t="shared" si="1"/>
@@ -5762,7 +5759,7 @@
         <v>3.3937719999999998E-2</v>
       </c>
       <c r="O11" s="47" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="P11" s="64">
         <f t="shared" si="0"/>
@@ -5775,7 +5772,7 @@
         <v>3.6156210000000001E-2</v>
       </c>
       <c r="S11" s="47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T11" s="47">
         <f t="shared" si="1"/>
@@ -5893,7 +5890,7 @@
         <v>6.6554039999999995E-2</v>
       </c>
       <c r="O12" s="68" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="P12" s="69">
         <f t="shared" si="0"/>
@@ -5906,7 +5903,7 @@
         <v>7.4292789999999997E-2</v>
       </c>
       <c r="S12" s="68" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T12" s="68">
         <f t="shared" si="1"/>
@@ -6024,7 +6021,7 @@
         <v>7.0073410000000003E-2</v>
       </c>
       <c r="O13" s="47" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P13" s="64">
         <f t="shared" si="0"/>
@@ -6037,7 +6034,7 @@
         <v>5.972591E-2</v>
       </c>
       <c r="S13" s="47" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T13" s="47">
         <f t="shared" si="1"/>
@@ -6155,7 +6152,7 @@
         <v>5.6864369999999997E-2</v>
       </c>
       <c r="O14" s="47" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P14" s="64">
         <f t="shared" si="0"/>
@@ -6168,7 +6165,7 @@
         <v>6.9323679999999999E-2</v>
       </c>
       <c r="S14" s="47" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T14" s="47">
         <f t="shared" si="1"/>
@@ -6286,7 +6283,7 @@
         <v>9.4426140000000006E-2</v>
       </c>
       <c r="O15" s="47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="P15" s="64">
         <f t="shared" si="0"/>
@@ -6299,7 +6296,7 @@
         <v>7.8740920000000006E-2</v>
       </c>
       <c r="S15" s="47" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T15" s="47">
         <f t="shared" si="1"/>
@@ -6417,7 +6414,7 @@
         <v>0.11299497</v>
       </c>
       <c r="O16" s="47" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="P16" s="64">
         <f t="shared" si="0"/>
@@ -6430,7 +6427,7 @@
         <v>8.986131E-2</v>
       </c>
       <c r="S16" s="47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T16" s="47">
         <f t="shared" si="1"/>
@@ -6548,7 +6545,7 @@
         <v>5.4266929999999998E-2</v>
       </c>
       <c r="O17" s="47" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="P17" s="64">
         <f t="shared" si="0"/>
@@ -6561,7 +6558,7 @@
         <v>5.9075919999999997E-2</v>
       </c>
       <c r="S17" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T17" s="47">
         <f t="shared" si="1"/>
@@ -6679,7 +6676,7 @@
         <v>2.3548099999999999E-2</v>
       </c>
       <c r="O18" s="47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P18" s="64">
         <f t="shared" si="0"/>
@@ -6692,7 +6689,7 @@
         <v>3.2374109999999998E-2</v>
       </c>
       <c r="S18" s="47" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T18" s="47">
         <f t="shared" si="1"/>
@@ -6810,7 +6807,7 @@
         <v>2.4833899999999998E-3</v>
       </c>
       <c r="O19" s="68" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P19" s="69">
         <f t="shared" si="0"/>
@@ -6823,7 +6820,7 @@
         <v>3.4969100000000002E-3</v>
       </c>
       <c r="S19" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T19" s="52">
         <f t="shared" si="1"/>
@@ -6941,7 +6938,7 @@
         <v>7.2644900000000002E-3</v>
       </c>
       <c r="O20" s="47" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="P20" s="64">
         <f t="shared" si="0"/>
@@ -6954,7 +6951,7 @@
         <v>9.5646399999999993E-3</v>
       </c>
       <c r="S20" s="47" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T20" s="47">
         <f t="shared" si="1"/>
@@ -7072,7 +7069,7 @@
         <v>-1.8494500000000001E-3</v>
       </c>
       <c r="O21" s="71" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P21" s="72">
         <f t="shared" si="0"/>
@@ -7085,7 +7082,7 @@
         <v>-4.6157699999999999E-3</v>
       </c>
       <c r="S21" s="71" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T21" s="71">
         <f t="shared" si="1"/>
@@ -7273,7 +7270,7 @@
         <v>0.37990424</v>
       </c>
       <c r="L23" s="101" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M23" s="101"/>
       <c r="N23" s="101"/>
@@ -9796,13 +9793,13 @@
         <v>69</v>
       </c>
       <c r="C47" s="106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D47" s="107"/>
       <c r="E47" s="107"/>
       <c r="F47" s="107"/>
       <c r="G47" s="106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H47" s="106"/>
       <c r="I47" s="107"/>
@@ -9964,19 +9961,19 @@
         <v>4.5604119999999998E-2</v>
       </c>
       <c r="V49" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="W49" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="W49" s="9" t="s">
-        <v>284</v>
-      </c>
       <c r="X49" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="Y49" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z49" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AL49" s="2" t="s">
         <v>95</v>
@@ -10023,7 +10020,7 @@
         <v>9.0330949999999993E-2</v>
       </c>
       <c r="V50" s="110" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="W50" s="110"/>
       <c r="X50" s="110"/>
@@ -10501,36 +10498,36 @@
     <mergeCell ref="J37:J38"/>
   </mergeCells>
   <conditionalFormatting sqref="B37:E37 G37:I37 Y45:Z45 AS47:AV47">
-    <cfRule type="expression" dxfId="209" priority="85">
-      <formula>AND(ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B37/B38)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="209" priority="87">
+      <formula>ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="208" priority="86">
       <formula>AND(ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B37/B38)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="87">
-      <formula>ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="207" priority="85">
+      <formula>AND(ABS(B37/B38)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B37/B38)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:E41 G41:I41">
-    <cfRule type="expression" dxfId="206" priority="70">
+    <cfRule type="expression" dxfId="206" priority="72">
+      <formula>ABS(B41/B42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="205" priority="70">
       <formula>AND(ABS(B41/B42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B41/B42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="71">
+    <cfRule type="expression" dxfId="204" priority="71">
       <formula>AND(ABS(B41/B42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B41/B42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="204" priority="72">
-      <formula>ABS(B41/B42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:E43 G43:I43">
-    <cfRule type="expression" dxfId="203" priority="67">
-      <formula>AND(ABS(B43/B44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B43/B44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="202" priority="68">
+    <cfRule type="expression" dxfId="203" priority="68">
       <formula>AND(ABS(B43/B44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(B43/B44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="69">
+    <cfRule type="expression" dxfId="202" priority="69">
       <formula>ABS(B43/B44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="201" priority="67">
+      <formula>AND(ABS(B43/B44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(B43/B44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W47:X47">
@@ -10545,14 +10542,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W48:X49">
-    <cfRule type="expression" dxfId="197" priority="22">
-      <formula>AND(ABS(W48/W45)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W48/W45)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="196" priority="23">
+    <cfRule type="expression" dxfId="197" priority="23">
       <formula>AND(ABS(W48/W45)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W48/W45)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="24">
+    <cfRule type="expression" dxfId="196" priority="24">
       <formula>ABS(W48/W45)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="195" priority="22">
+      <formula>AND(ABS(W48/W45)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W48/W45)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W3:Z3 B5:E5 G5:I5 W5:Z5 B7:E7 G7:I7 W7:Z7 B9:E9 G9:I9 W9:Z9 B11:E11 G11:I11 W11:Z11 B13:E13 G13:I13 W13:Z13 B15:E15 G15:I15 W15:Z15 B17:E17 G17:I17 W17:Z17 B19:E19 G19:I19 W19:Z19 B21:E21 G21:I21 W21:Z21 B23:E23 G23:I23 W23:Z23 B25:E25 G25:I25 W25:Z25 B27:E27 G27:I27 W27:Z27 B29:E29 G29:I29 W29:Z29 B31:E31 G31:I31 W31:Z31 B33:E33 G33:I33 W33:Z33 B35:E35 G35:I35 W35:Z35 W37:Z37 B39:E39 G39:I39 B45:E45 G45:I45 AM45:AP45 AS45:AV45">
@@ -10578,14 +10575,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41:Z41">
-    <cfRule type="expression" dxfId="188" priority="61">
+    <cfRule type="expression" dxfId="188" priority="63">
+      <formula>ABS(W41/W42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="187" priority="61">
       <formula>AND(ABS(W41/W42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(W41/W42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="62">
+    <cfRule type="expression" dxfId="186" priority="62">
       <formula>AND(ABS(W41/W42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(W41/W42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="186" priority="63">
-      <formula>ABS(W41/W42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43:Z43">
@@ -10622,58 +10619,58 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM39:AP39">
-    <cfRule type="expression" dxfId="176" priority="52">
+    <cfRule type="expression" dxfId="176" priority="54">
+      <formula>ABS(AM39/AM40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="175" priority="52">
       <formula>AND(ABS(AM39/AM40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM39/AM40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="175" priority="53">
+    <cfRule type="expression" dxfId="174" priority="53">
       <formula>AND(ABS(AM39/AM40)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM39/AM40)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="54">
-      <formula>ABS(AM39/AM40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM41:AP41">
     <cfRule type="expression" dxfId="173" priority="55">
       <formula>AND(ABS(AM41/AM42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM41/AM42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="172" priority="56">
+    <cfRule type="expression" dxfId="172" priority="57">
+      <formula>ABS(AM41/AM42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="171" priority="56">
       <formula>AND(ABS(AM41/AM42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM41/AM42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="171" priority="57">
-      <formula>ABS(AM41/AM42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM47:AP47">
-    <cfRule type="expression" dxfId="170" priority="109">
+    <cfRule type="expression" dxfId="170" priority="111">
+      <formula>ABS(AM47/AM48)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="109">
       <formula>AND(ABS(AM47/AM48)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM47/AM48)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="110">
+    <cfRule type="expression" dxfId="168" priority="110">
       <formula>AND(ABS(AM47/AM48)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM47/AM48)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="111">
-      <formula>ABS(AM47/AM48)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM53:AP53">
-    <cfRule type="expression" dxfId="167" priority="97">
-      <formula>AND(ABS(AM53/AM54)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM53/AM54)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="166" priority="98">
+    <cfRule type="expression" dxfId="167" priority="98">
       <formula>AND(ABS(AM53/AM54)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AM53/AM54)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="99">
+    <cfRule type="expression" dxfId="166" priority="99">
       <formula>ABS(AM53/AM54)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="97">
+      <formula>AND(ABS(AM53/AM54)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AM53/AM54)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS3:AV3 AS5:AV5 AS7:AV7 AS9:AV9 AS11:AV11 AS13:AV13 AS15:AV15 AS17:AV17 AS19:AV19 AS21:AV21 AS23:AV23 AS25:AV25 AS27:AV27 AS29:AV29 AS31:AV31 AS33:AV33 AS37:AV37 AS43:AV43 AS49:AV49 AS51:AV51 AS55:AV55">
     <cfRule type="expression" dxfId="164" priority="103">
       <formula>AND(ABS(AS3/AS4)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS3/AS4)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="163" priority="104">
+    <cfRule type="expression" dxfId="163" priority="105">
+      <formula>ABS(AS3/AS4)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="162" priority="104">
       <formula>AND(ABS(AS3/AS4)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS3/AS4)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="162" priority="105">
-      <formula>ABS(AS3/AS4)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS35:AV35">
@@ -10688,25 +10685,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS39:AV39">
-    <cfRule type="expression" dxfId="158" priority="46">
-      <formula>AND(ABS(AS39/AS40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS39/AS40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="157" priority="47">
+    <cfRule type="expression" dxfId="158" priority="47">
       <formula>AND(ABS(AS39/AS40)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS39/AS40)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="48">
+    <cfRule type="expression" dxfId="157" priority="48">
       <formula>ABS(AS39/AS40)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="156" priority="46">
+      <formula>AND(ABS(AS39/AS40)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS39/AS40)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS41:AV41">
-    <cfRule type="expression" dxfId="155" priority="49">
-      <formula>AND(ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS41/AS42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="155" priority="51">
+      <formula>ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="154" priority="50">
       <formula>AND(ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AS41/AS42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="51">
-      <formula>ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="153" priority="49">
+      <formula>AND(ABS(AS41/AS42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AS41/AS42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS53:AV53">
@@ -10794,7 +10791,7 @@
   <sheetData>
     <row r="1" spans="1:63" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="101" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -10805,7 +10802,7 @@
       <c r="H1" s="101"/>
       <c r="I1" s="101"/>
       <c r="K1" s="101" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="L1" s="101"/>
       <c r="M1" s="101"/>
@@ -10816,7 +10813,7 @@
       <c r="R1" s="101"/>
       <c r="S1" s="101"/>
       <c r="U1" s="101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V1" s="101"/>
       <c r="W1" s="101"/>
@@ -10829,7 +10826,7 @@
       <c r="AD1" s="101"/>
       <c r="AE1" s="101"/>
       <c r="AG1" s="101" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AH1" s="101"/>
       <c r="AI1" s="101"/>
@@ -10842,7 +10839,7 @@
       <c r="AP1" s="101"/>
       <c r="AQ1" s="101"/>
       <c r="AS1" s="101" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AT1" s="101"/>
       <c r="AU1" s="101"/>
@@ -10853,7 +10850,7 @@
       <c r="AZ1" s="101"/>
       <c r="BA1" s="101"/>
       <c r="BC1" s="101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BD1" s="101"/>
       <c r="BE1" s="101"/>
@@ -10893,10 +10890,10 @@
       <c r="S2" s="113"/>
       <c r="U2" s="2"/>
       <c r="V2" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="X2" s="115" t="s">
         <v>279</v>
@@ -10912,10 +10909,10 @@
       <c r="AE2" s="117"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AJ2" s="115" t="s">
         <v>279</v>
@@ -11173,7 +11170,7 @@
         <v>102</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>68</v>
@@ -11185,7 +11182,7 @@
         <v>102</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>68</v>
@@ -11204,7 +11201,7 @@
         <v>102</v>
       </c>
       <c r="AL4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AM4" s="1" t="s">
         <v>68</v>
@@ -11216,7 +11213,7 @@
         <v>102</v>
       </c>
       <c r="AP4" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AQ4" s="1" t="s">
         <v>68</v>
@@ -16755,13 +16752,13 @@
         <v>69</v>
       </c>
       <c r="X47" s="106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Y47" s="106"/>
       <c r="Z47" s="107"/>
       <c r="AA47" s="107"/>
       <c r="AB47" s="106" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AC47" s="106"/>
       <c r="AD47" s="107"/>
@@ -16776,13 +16773,13 @@
         <v>69</v>
       </c>
       <c r="AJ47" s="112" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AK47" s="112"/>
       <c r="AL47" s="113"/>
       <c r="AM47" s="113"/>
       <c r="AN47" s="112" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AO47" s="112"/>
       <c r="AP47" s="113"/>
@@ -16834,43 +16831,43 @@
     </row>
     <row r="49" spans="21:43" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="U49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="V49" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="V49" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="W49" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="X49" s="112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Y49" s="112"/>
       <c r="Z49" s="113"/>
       <c r="AA49" s="113"/>
       <c r="AB49" s="112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC49" s="112"/>
       <c r="AD49" s="113"/>
       <c r="AE49" s="113"/>
       <c r="AG49" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AH49" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="AH49" s="1" t="s">
-        <v>284</v>
-      </c>
       <c r="AI49" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AJ49" s="112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AK49" s="112"/>
       <c r="AL49" s="113"/>
       <c r="AM49" s="113"/>
       <c r="AN49" s="112" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AO49" s="112"/>
       <c r="AP49" s="113"/>
@@ -16878,7 +16875,7 @@
     </row>
     <row r="50" spans="21:43" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="U50" s="110" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V50" s="110"/>
       <c r="W50" s="110"/>
@@ -16891,7 +16888,7 @@
       <c r="AD50" s="110"/>
       <c r="AE50" s="110"/>
       <c r="AG50" s="110" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AH50" s="110"/>
       <c r="AI50" s="110"/>
@@ -17060,14 +17057,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB37:AD37">
-    <cfRule type="expression" dxfId="137" priority="73">
-      <formula>AND(ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB37/AB38)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="137" priority="75">
+      <formula>ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="136" priority="74">
       <formula>AND(ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB37/AB38)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="75">
-      <formula>ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="135" priority="73">
+      <formula>AND(ABS(AB37/AB38)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB37/AB38)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH41:AL41">
@@ -17093,22 +17090,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH45:AL45">
-    <cfRule type="expression" dxfId="128" priority="193">
+    <cfRule type="expression" dxfId="128" priority="195">
+      <formula>ABS(AH45/AH46)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="127" priority="193">
       <formula>AND(ABS(AH45/AH46)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AH45/AH46)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="194">
+    <cfRule type="expression" dxfId="126" priority="194">
       <formula>AND(ABS(AH45/AH46)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AH45/AH46)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="126" priority="195">
-      <formula>ABS(AH45/AH46)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN5:AP5 AN7:AP7 AN9:AP9 AN11:AP11 AN13:AP13 AN15:AP15 AN17:AP17 AN19:AP19 AN21:AP21 AN23:AP23 AN25:AP25 AN27:AP27 AN29:AP29 AN31:AP31 AN33:AP33 AN35:AP35 AN39:AP39">
-    <cfRule type="expression" dxfId="125" priority="91">
+    <cfRule type="expression" dxfId="125" priority="92">
+      <formula>AND(ABS(AN5/AN6)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN5/AN6)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="124" priority="91">
       <formula>AND(ABS(AN5/AN6)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN5/AN6)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="92">
-      <formula>AND(ABS(AN5/AN6)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN5/AN6)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="123" priority="93">
       <formula>ABS(AN5/AN6)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
@@ -17126,25 +17123,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN41:AP41">
-    <cfRule type="expression" dxfId="119" priority="7">
-      <formula>AND(ABS(AN41/AN42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN41/AN42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="118" priority="8">
+    <cfRule type="expression" dxfId="119" priority="8">
       <formula>AND(ABS(AN41/AN42)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN41/AN42)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="9">
+    <cfRule type="expression" dxfId="118" priority="9">
       <formula>ABS(AN41/AN42)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="117" priority="7">
+      <formula>AND(ABS(AN41/AN42)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN41/AN42)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN43:AP43">
-    <cfRule type="expression" dxfId="116" priority="19">
-      <formula>AND(ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN43/AN44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="116" priority="21">
+      <formula>ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="115" priority="20">
       <formula>AND(ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AN43/AN44)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="21">
-      <formula>ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="114" priority="19">
+      <formula>AND(ABS(AN43/AN44)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AN43/AN44)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17156,8 +17153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{487E4BB4-D169-485F-9F49-6D22A4AA3C94}">
   <dimension ref="A1:AM79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19019,7 +19016,7 @@
         <v>19.608695999999998</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H19" s="125"/>
       <c r="I19" s="125"/>
@@ -19029,7 +19026,7 @@
       <c r="M19" s="125"/>
       <c r="N19" s="125"/>
       <c r="Q19" s="124" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R19" s="125"/>
       <c r="S19" s="125"/>
@@ -19039,7 +19036,7 @@
       <c r="W19" s="125"/>
       <c r="X19" s="125"/>
       <c r="AA19" s="110" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB19" s="111"/>
       <c r="AC19" s="111"/>
@@ -20911,7 +20908,7 @@
         <v>122.3</v>
       </c>
       <c r="G39" s="124" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H39" s="125"/>
       <c r="I39" s="125"/>
@@ -20921,7 +20918,7 @@
       <c r="M39" s="125"/>
       <c r="N39" s="125"/>
       <c r="Q39" s="124" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="R39" s="125"/>
       <c r="S39" s="125"/>
@@ -20931,7 +20928,7 @@
       <c r="W39" s="125"/>
       <c r="X39" s="125"/>
       <c r="AA39" s="110" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AB39" s="111"/>
       <c r="AC39" s="111"/>
@@ -21498,7 +21495,7 @@
     </row>
     <row r="59" spans="7:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G59" s="124" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H59" s="125"/>
       <c r="I59" s="125"/>
@@ -21986,7 +21983,7 @@
     </row>
     <row r="79" spans="7:15" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
       <c r="G79" s="124" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H79" s="125"/>
       <c r="I79" s="125"/>
@@ -22071,47 +22068,47 @@
     <mergeCell ref="AE2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:O4 H14:O14 H16:O16 H24:O24 H34:O34 H36:O36 H44:O44 H54:O54 H56:O56">
-    <cfRule type="expression" dxfId="113" priority="142">
+    <cfRule type="expression" dxfId="113" priority="144">
+      <formula>ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="112" priority="142">
       <formula>AND(ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H4/H5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="143">
+    <cfRule type="expression" dxfId="111" priority="143">
       <formula>AND(ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H4/H5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="144">
-      <formula>ABS(H4/H5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:O6">
-    <cfRule type="expression" dxfId="110" priority="112">
-      <formula>AND(ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H6/H7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="113">
+    <cfRule type="expression" dxfId="110" priority="113">
       <formula>AND(ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H6/H7)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="114">
+    <cfRule type="expression" dxfId="109" priority="114">
       <formula>ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="108" priority="112">
+      <formula>AND(ABS(H6/H7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H6/H7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8:O8">
-    <cfRule type="expression" dxfId="107" priority="115">
-      <formula>AND(ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H8/H9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="107" priority="117">
+      <formula>ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="106" priority="116">
       <formula>AND(ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H8/H9)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="117">
-      <formula>ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="105" priority="115">
+      <formula>AND(ABS(H8/H9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H8/H9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10:O10">
-    <cfRule type="expression" dxfId="104" priority="118">
+    <cfRule type="expression" dxfId="104" priority="120">
+      <formula>ABS(H10/H11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="103" priority="118">
       <formula>AND(ABS(H10/H11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H10/H11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="119">
+    <cfRule type="expression" dxfId="102" priority="119">
       <formula>AND(ABS(H10/H11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H10/H11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="102" priority="120">
-      <formula>ABS(H10/H11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:O12">
@@ -22126,69 +22123,69 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26:O26">
-    <cfRule type="expression" dxfId="98" priority="103">
-      <formula>AND(ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H26/H27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="98" priority="105">
+      <formula>ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="97" priority="104">
       <formula>AND(ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H26/H27)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="105">
-      <formula>ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="96" priority="103">
+      <formula>AND(ABS(H26/H27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H26/H27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28:O28">
-    <cfRule type="expression" dxfId="95" priority="106">
-      <formula>AND(ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H28/H29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="95" priority="108">
+      <formula>ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="94" priority="107">
       <formula>AND(ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H28/H29)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="108">
-      <formula>ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="93" priority="106">
+      <formula>AND(ABS(H28/H29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H28/H29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:O30">
-    <cfRule type="expression" dxfId="92" priority="109">
-      <formula>AND(ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H30/H31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="92" priority="111">
+      <formula>ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="91" priority="110">
       <formula>AND(ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H30/H31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="111">
-      <formula>ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="90" priority="109">
+      <formula>AND(ABS(H30/H31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H30/H31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:O32">
     <cfRule type="expression" dxfId="89" priority="19">
       <formula>AND(ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H32/H33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="20">
+    <cfRule type="expression" dxfId="88" priority="21">
+      <formula>ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="87" priority="20">
       <formula>AND(ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H32/H33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="87" priority="21">
-      <formula>ABS(H32/H33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:O46">
-    <cfRule type="expression" dxfId="86" priority="94">
-      <formula>AND(ABS(H46/H47)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H46/H47)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="95">
+    <cfRule type="expression" dxfId="86" priority="95">
       <formula>AND(ABS(H46/H47)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H46/H47)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="96">
+    <cfRule type="expression" dxfId="85" priority="96">
       <formula>ABS(H46/H47)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="84" priority="94">
+      <formula>AND(ABS(H46/H47)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H46/H47)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48:O48">
-    <cfRule type="expression" dxfId="83" priority="97">
+    <cfRule type="expression" dxfId="83" priority="99">
+      <formula>ABS(H48/H49)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="97">
       <formula>AND(ABS(H48/H49)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H48/H49)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="98">
+    <cfRule type="expression" dxfId="81" priority="98">
       <formula>AND(ABS(H48/H49)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H48/H49)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="81" priority="99">
-      <formula>ABS(H48/H49)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:O50">
@@ -22206,11 +22203,11 @@
     <cfRule type="expression" dxfId="77" priority="16">
       <formula>AND(ABS(H52/H53)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H52/H53)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="17">
+    <cfRule type="expression" dxfId="76" priority="18">
+      <formula>ABS(H52/H53)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="75" priority="17">
       <formula>AND(ABS(H52/H53)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H52/H53)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="18">
-      <formula>ABS(H52/H53)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64:O64 H74:O74 H76:O76">
@@ -22228,66 +22225,66 @@
     <cfRule type="expression" dxfId="71" priority="85">
       <formula>AND(ABS(H66/H67)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H66/H67)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="86">
+    <cfRule type="expression" dxfId="70" priority="87">
+      <formula>ABS(H66/H67)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="69" priority="86">
       <formula>AND(ABS(H66/H67)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H66/H67)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="87">
-      <formula>ABS(H66/H67)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68:O68">
-    <cfRule type="expression" dxfId="68" priority="88">
-      <formula>AND(ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H68/H69)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="68" priority="90">
+      <formula>ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="67" priority="89">
       <formula>AND(ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H68/H69)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="90">
-      <formula>ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="66" priority="88">
+      <formula>AND(ABS(H68/H69)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H68/H69)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70:O70">
-    <cfRule type="expression" dxfId="65" priority="91">
-      <formula>AND(ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H70/H71)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="65" priority="93">
+      <formula>ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="64" priority="92">
       <formula>AND(ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H70/H71)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="93">
-      <formula>ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="63" priority="91">
+      <formula>AND(ABS(H70/H71)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H70/H71)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72:O72">
-    <cfRule type="expression" dxfId="62" priority="13">
+    <cfRule type="expression" dxfId="62" priority="15">
+      <formula>ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="13">
       <formula>AND(ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(H72/H73)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="14">
+    <cfRule type="expression" dxfId="60" priority="14">
       <formula>AND(ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(H72/H73)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="15">
-      <formula>ABS(H72/H73)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R4:Y4 R14:Y14 R16:Y16 R24:Y24 R34:Y34 R36:Y36">
-    <cfRule type="expression" dxfId="59" priority="82">
-      <formula>AND(ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R4/R5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="59" priority="84">
+      <formula>ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="58" priority="83">
       <formula>AND(ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R4/R5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="84">
-      <formula>ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="57" priority="82">
+      <formula>AND(ABS(R4/R5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R4/R5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:Y6">
     <cfRule type="expression" dxfId="56" priority="70">
       <formula>AND(ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R6/R7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="71">
+    <cfRule type="expression" dxfId="55" priority="72">
+      <formula>ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="71">
       <formula>AND(ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R6/R7)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="72">
-      <formula>ABS(R6/R7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R8:Y8">
@@ -22302,179 +22299,179 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R10:Y10">
-    <cfRule type="expression" dxfId="50" priority="76">
+    <cfRule type="expression" dxfId="50" priority="77">
+      <formula>AND(ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R10/R11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="49" priority="76">
       <formula>AND(ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R10/R11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="77">
-      <formula>AND(ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R10/R11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="48" priority="78">
       <formula>ABS(R10/R11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R12:Y12">
+    <cfRule type="expression" dxfId="47" priority="12">
+      <formula>ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="10">
+      <formula>AND(ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R12/R13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="45" priority="11">
+      <formula>AND(ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R12/R13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="R26:Y26">
-    <cfRule type="expression" dxfId="47" priority="61">
-      <formula>AND(ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R26/R27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="44" priority="63">
+      <formula>ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="62">
+    <cfRule type="expression" dxfId="43" priority="62">
       <formula>AND(ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R26/R27)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="63">
-      <formula>ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="42" priority="61">
+      <formula>AND(ABS(R26/R27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R26/R27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:Y28">
-    <cfRule type="expression" dxfId="44" priority="64">
-      <formula>AND(ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R28/R29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="41" priority="66">
+      <formula>ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="65">
+    <cfRule type="expression" dxfId="40" priority="65">
       <formula>AND(ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R28/R29)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="66">
-      <formula>ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="39" priority="64">
+      <formula>AND(ABS(R28/R29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R28/R29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30:Y30">
-    <cfRule type="expression" dxfId="41" priority="67">
+    <cfRule type="expression" dxfId="38" priority="67">
       <formula>AND(ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R30/R31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="68">
+    <cfRule type="expression" dxfId="37" priority="69">
+      <formula>ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="36" priority="68">
       <formula>AND(ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R30/R31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="69">
-      <formula>ABS(R30/R31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R32:Y32">
+    <cfRule type="expression" dxfId="35" priority="7">
+      <formula>AND(ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R32/R33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="8">
+      <formula>AND(ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R32/R33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="9">
+      <formula>ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB4:AM4 AB14:AM14 AB16:AM16">
-    <cfRule type="expression" dxfId="38" priority="127">
+    <cfRule type="expression" dxfId="32" priority="127">
       <formula>AND(ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB4/AB5)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="128">
+    <cfRule type="expression" dxfId="31" priority="128">
       <formula>AND(ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB4/AB5)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="129">
+    <cfRule type="expression" dxfId="30" priority="129">
       <formula>ABS(AB4/AB5)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AM6">
-    <cfRule type="expression" dxfId="35" priority="34">
-      <formula>AND(ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB6/AB7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="29" priority="36">
+      <formula>ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="28" priority="35">
       <formula>AND(ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB6/AB7)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="36">
-      <formula>ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="27" priority="34">
+      <formula>AND(ABS(AB6/AB7)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB6/AB7)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AM8">
-    <cfRule type="expression" dxfId="32" priority="37">
-      <formula>AND(ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB8/AB9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    <cfRule type="expression" dxfId="26" priority="39">
+      <formula>ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="38">
+    <cfRule type="expression" dxfId="25" priority="38">
       <formula>AND(ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB8/AB9)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="39">
-      <formula>ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    <cfRule type="expression" dxfId="24" priority="37">
+      <formula>AND(ABS(AB8/AB9)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB8/AB9)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB10:AM10">
-    <cfRule type="expression" dxfId="29" priority="40">
+    <cfRule type="expression" dxfId="23" priority="41">
+      <formula>AND(ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB10/AB11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="40">
       <formula>AND(ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB10/AB11)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="41">
-      <formula>AND(ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB10/AB11)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="42">
+    <cfRule type="expression" dxfId="21" priority="42">
       <formula>ABS(AB10/AB11)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AB12:AM12">
+    <cfRule type="expression" dxfId="20" priority="6">
+      <formula>ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="5">
+      <formula>AND(ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB12/AB13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>AND(ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB12/AB13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AB24:AM24 AB34:AM34 AB36:AM36">
-    <cfRule type="expression" dxfId="26" priority="124">
+    <cfRule type="expression" dxfId="17" priority="124">
       <formula>AND(ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB24/AB25)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="125">
+    <cfRule type="expression" dxfId="16" priority="125">
       <formula>AND(ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB24/AB25)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="126">
+    <cfRule type="expression" dxfId="15" priority="126">
       <formula>ABS(AB24/AB25)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB26:AM26">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="14" priority="27">
+      <formula>ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="25">
       <formula>AND(ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB26/AB27)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="12" priority="26">
       <formula>AND(ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB26/AB27)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="27">
-      <formula>ABS(AB26/AB27)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB28:AM28">
-    <cfRule type="expression" dxfId="20" priority="31">
+    <cfRule type="expression" dxfId="11" priority="31">
       <formula>AND(ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB28/AB29)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="32">
+    <cfRule type="expression" dxfId="10" priority="32">
       <formula>AND(ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB28/AB29)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="33">
+    <cfRule type="expression" dxfId="9" priority="33">
       <formula>ABS(AB28/AB29)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB30:AM30">
-    <cfRule type="expression" dxfId="17" priority="28">
+    <cfRule type="expression" dxfId="8" priority="28">
       <formula>AND(ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB30/AB31)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="29">
+    <cfRule type="expression" dxfId="7" priority="29">
       <formula>AND(ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB30/AB31)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="30">
+    <cfRule type="expression" dxfId="6" priority="30">
       <formula>ABS(AB30/AB31)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R12:Y12">
-    <cfRule type="expression" dxfId="14" priority="10">
-      <formula>AND(ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R12/R13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
+  <conditionalFormatting sqref="AB32:AM32">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
-      <formula>AND(ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R12/R13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
-      <formula>ABS(R12/R13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R32:Y32">
-    <cfRule type="expression" dxfId="11" priority="7">
-      <formula>AND(ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(R32/R33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>AND(ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(R32/R33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9">
-      <formula>ABS(R32/R33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB12:AM12">
-    <cfRule type="expression" dxfId="8" priority="4">
-      <formula>AND(ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB12/AB13)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>AND(ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB12/AB13)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="6">
-      <formula>ABS(AB12/AB13)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB32:AM32">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.1/2,0,1),ABS(AB32/AB33)&lt;=_xlfn.NORM.INV(1-0.05/2,0,1))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>AND(ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.05/2,0,1),ABS(AB32/AB33)&lt;=_xlfn.NORM.INV(1-0.01/2,0,1))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>ABS(AB32/AB33)&gt;_xlfn.NORM.INV(1-0.01/2,0,1)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
